--- a/biology/Botanique/Henry_Nicholas_Ridley/Henry_Nicholas_Ridley.xlsx
+++ b/biology/Botanique/Henry_Nicholas_Ridley/Henry_Nicholas_Ridley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Nicholas Ridley est un botaniste britannique, né le 10 décembre 1855 à West Harling dans le Norfolk et mort le 24 octobre 1956 à Kew.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Bachelor of Arts à Oxford. Il devient membre de la Linnean Society of London en 1881 et de la Royal Society en 1907. Il travaille comme assistant au département de botanique de 1880 à 1888 du British Museum. Il participe à une expédition scientifique à Fernando de Noronha en 1887. Il dirige le Jardin botanique de Singapour de 1888 à 1911. Il contribue à introduire la culture du caoutchouc en Malaisie. Il s’intéresse particulièrement aux relations entre les animaux et les végétaux. Rudolf Schlechter (1872-1925) lui dédie en 1913 le genre Ridleyella de la famille des Orchidaceae et Carl Ernst Otto Kuntze (1843-1907) en 1891 le genre Ridleyinda de la famille des Sapotaceae. Il reçoit la médaille linnéenne en 1950.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ray Desmond (1994). Dictionary of British and Irish Botanists and Horticulturists includins Plant Collectors, Flower Painters and Garden Designers. Taylor &amp; Francis and The Natural History Museum (Londres).</t>
         </is>
